--- a/core/src/test/resources/generators.xlsx
+++ b/core/src/test/resources/generators.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">b</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">f</t>
   </si>
   <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
     <t xml:space="preserve">h</t>
   </si>
   <si>
@@ -47,10 +50,16 @@
     <t xml:space="preserve">AAA</t>
   </si>
   <si>
+    <t xml:space="preserve">甲</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">BBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乙</t>
   </si>
   <si>
     <t xml:space="preserve">CCC</t>
@@ -66,7 +75,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,6 +96,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +160,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,17 +184,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -199,6 +218,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -214,14 +236,17 @@
         <v>43800.395844919</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,9 +263,12 @@
         <v>43801.3958565046</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -257,7 +285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -267,7 +295,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -276,17 +304,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
